--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376039.6593209953</v>
+        <v>372706.9744652318</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179438</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902568.078488211</v>
+        <v>5118051.369601971</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
     </row>
     <row r="3">
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="4">
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1096,13 +1098,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1330,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T10" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="S11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="12">
@@ -1449,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1540,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>39.58387696184059</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="I13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y14" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
     </row>
     <row r="15">
@@ -1692,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1740,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1786,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,22 +1891,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>28.88091821707973</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>38.87161743162454</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,22 +2043,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,64 +2083,64 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>80.33470701582003</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
@@ -2160,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>110.1497834296626</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>56.18919046805142</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,11 +2317,11 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
@@ -2327,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2409,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.48188567889162</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2460,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2573,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2609,13 +2611,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.10479885422595</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>88.12692860372137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2734,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>134.667568689459</v>
+        <v>120.9298661881966</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2956,55 +2958,55 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>110.6711786524735</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.0057867469176</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>68.29221919223492</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="39">
@@ -3585,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>143.3973265332503</v>
       </c>
       <c r="E39" t="n">
-        <v>2.168699673084992</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3600,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3700,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>208.2792470398066</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -3867,25 +3869,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>121.1197690623826</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>111.7765806969847</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>34.86547882798917</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>52.42556848774752</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>39.58387696184059</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V2" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W2" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C3" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D3" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E3" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F3" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G3" t="n">
-        <v>3.920842809732961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H3" t="n">
-        <v>3.920842809732961</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N3" t="n">
-        <v>119.1474696551402</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S5" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T5" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U5" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V5" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W5" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X5" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y5" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M6" t="n">
-        <v>42.35474834916943</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
-        <v>42.35474834916943</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W6" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X6" t="n">
-        <v>78.36807964162378</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="C7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="T7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="U7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="V7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="W7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="X7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.46354404567346</v>
+        <v>26.02500997809875</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1878417126385</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>148.2438924791353</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S8" t="n">
-        <v>148.2438924791353</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T8" t="n">
-        <v>148.2438924791353</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U8" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V8" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W8" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X8" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y8" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118.3517937444931</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C9" t="n">
-        <v>118.3517937444931</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D9" t="n">
-        <v>118.3517937444931</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E9" t="n">
-        <v>118.3517937444931</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F9" t="n">
-        <v>78.36807964162378</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G9" t="n">
-        <v>38.38436553875449</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="S9" t="n">
-        <v>118.3517937444931</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="T9" t="n">
-        <v>118.3517937444931</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="U9" t="n">
-        <v>118.3517937444931</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="V9" t="n">
-        <v>118.3517937444931</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="W9" t="n">
-        <v>118.3517937444931</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X9" t="n">
-        <v>118.3517937444931</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y9" t="n">
-        <v>118.3517937444931</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q10" t="n">
-        <v>93.21247408113457</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R10" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S10" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118.3517937444931</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="C11" t="n">
-        <v>83.13413836268582</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="D11" t="n">
-        <v>43.15042425981653</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="E11" t="n">
-        <v>43.15042425981653</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="F11" t="n">
-        <v>43.15042425981653</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="G11" t="n">
-        <v>43.15042425981653</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="H11" t="n">
-        <v>43.15042425981653</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="S11" t="n">
-        <v>118.3517937444931</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="T11" t="n">
-        <v>118.3517937444931</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="U11" t="n">
-        <v>118.3517937444931</v>
+        <v>104.756466833843</v>
       </c>
       <c r="V11" t="n">
-        <v>118.3517937444931</v>
+        <v>104.756466833843</v>
       </c>
       <c r="W11" t="n">
-        <v>118.3517937444931</v>
+        <v>104.756466833843</v>
       </c>
       <c r="X11" t="n">
-        <v>118.3517937444931</v>
+        <v>104.756466833843</v>
       </c>
       <c r="Y11" t="n">
-        <v>118.3517937444931</v>
+        <v>60.17851493563234</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C12" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D12" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E12" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G12" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="D13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="E13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="F13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="G13" t="n">
-        <v>123.1178524655551</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="H13" t="n">
-        <v>83.13413836268582</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I13" t="n">
-        <v>43.15042425981653</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C14" t="n">
-        <v>28.29275017052741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>28.29275017052741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>28.29275017052741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>28.29275017052741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>28.29275017052741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>28.29275017052741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M14" t="n">
-        <v>120.7308247336138</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>158.3355078473624</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V14" t="n">
-        <v>148.2438924791353</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W14" t="n">
-        <v>148.2438924791353</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X14" t="n">
-        <v>148.2438924791353</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y14" t="n">
-        <v>108.260178376266</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O15" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>46.15803044872652</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8591222504766</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S17" t="n">
-        <v>77.28117035226589</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>48.10852568854899</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>89.14698820604177</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>42.79483382228227</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>343.8760884571613</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C20" t="n">
-        <v>100.4273118130612</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D20" t="n">
-        <v>100.4273118130612</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>587.3248651012614</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>587.3248651012614</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V20" t="n">
-        <v>587.3248651012614</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W20" t="n">
-        <v>343.8760884571613</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="X20" t="n">
-        <v>343.8760884571613</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y20" t="n">
-        <v>343.8760884571613</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>304.9965798960495</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="C21" t="n">
-        <v>130.5435506149225</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="D21" t="n">
-        <v>130.5435506149225</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="E21" t="n">
-        <v>130.5435506149225</v>
+        <v>475.4265527944554</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>328.8919948213404</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>190.1611694039559</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>76.79203381153523</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.9965798960495</v>
+        <v>634.6640077999109</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6022,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>118.5018269537981</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6169,7 +6171,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6259,19 @@
         <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6342,13 +6344,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y27" t="n">
-        <v>168.215552771464</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>156.0631229240681</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C30" t="n">
-        <v>156.0631229240681</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6551,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N30" t="n">
         <v>487.8483949674443</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>726.4525409563269</v>
       </c>
-      <c r="O30" t="n">
-        <v>964.0571555106362</v>
-      </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>156.0631229240681</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>156.0631229240681</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>156.0631229240681</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>852.2680861647034</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>617.1159779329607</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W33" t="n">
-        <v>373.6672012888606</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6974,13 +6976,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7026,10 +7028,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>895.0751159225201</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>666.8514976589092</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>431.6993894271665</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W36" t="n">
-        <v>188.2506127830665</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X36" t="n">
-        <v>188.2506127830665</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y36" t="n">
-        <v>188.2506127830665</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7217,7 +7219,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>259.0600686093459</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="C39" t="n">
-        <v>259.0600686093459</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="D39" t="n">
-        <v>259.0600686093459</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E39" t="n">
-        <v>256.869462878957</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,7 +7262,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>259.0600686093459</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X39" t="n">
-        <v>259.0600686093459</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y39" t="n">
-        <v>259.0600686093459</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
         <v>19.28114311021272</v>
@@ -7348,34 +7350,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.91727947682168</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>707.0094349923255</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>468.1548961435668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.3003572948082</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>306.7394443503694</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C42" t="n">
-        <v>132.2864150692424</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D42" t="n">
-        <v>132.2864150692424</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E42" t="n">
-        <v>132.2864150692424</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F42" t="n">
-        <v>132.2864150692424</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G42" t="n">
-        <v>132.2864150692424</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M42" t="n">
-        <v>608.3392789286765</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>842.4406124543449</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>945.8639738410842</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>844.6944443939699</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>722.3512433208562</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>722.3512433208562</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>722.3512433208562</v>
+        <v>749.9819889958605</v>
       </c>
       <c r="V42" t="n">
-        <v>722.3512433208562</v>
+        <v>514.8298807641179</v>
       </c>
       <c r="W42" t="n">
-        <v>722.3512433208562</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="X42" t="n">
-        <v>514.4997431153233</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="Y42" t="n">
-        <v>306.7394443503694</v>
+        <v>271.3811041200179</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>42.35474834916943</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>42.35474834916943</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>81.54278654139161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>120.7308247336138</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>123.1178524655551</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>123.1178524655551</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>123.1178524655551</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>123.1178524655551</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>83.13413836268582</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>83.13413836268582</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X44" t="n">
-        <v>83.13413836268582</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.15042425981653</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43.15042425981653</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>40.77139327069581</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>79.95943146291799</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>119.1474696551402</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O45" t="n">
-        <v>158.3355078473624</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W45" t="n">
-        <v>118.3517937444931</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X45" t="n">
-        <v>118.3517937444931</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y45" t="n">
-        <v>83.13413836268582</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>258.0743794427063</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>180.5807728421703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>175.8259673720848</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8787,7 +8789,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N15" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,16 +9728,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10674,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>431.5041213350942</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>247.0642862492316</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>269.2175241529953</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>176.5389081776</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22565,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,16 +22594,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>115.0036391131605</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="3">
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>191.8224945792435</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="4">
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
-        <v>325.689014809167</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22829,10 +22831,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>115.0036391131605</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22881,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>55.27774534968376</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W6" t="n">
-        <v>212.111106199079</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
-        <v>166.1891082416369</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.0988188154638</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>130.8799781651428</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,13 +22986,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>204.0849077710508</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>393.9505554828796</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>62.03280804727645</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23218,19 +23220,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T10" t="n">
-        <v>217.9680370670172</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23258,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>330.4074129430184</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>132.9374890786825</v>
       </c>
       <c r="S11" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="12">
@@ -23337,19 +23339,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>133.1246220264752</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D12" t="n">
-        <v>107.8611886027982</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E12" t="n">
-        <v>118.0612034935604</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>99.21849105784395</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23428,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>122.643295545599</v>
+        <v>142.2954822415181</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23513,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>185.6011099569616</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23552,16 +23554,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y14" t="n">
-        <v>346.654061694213</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="15">
@@ -23580,16 +23582,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>122.7796016274118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23628,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23674,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>73.42748985075127</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23750,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>194.2149313470516</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>187.0697646493503</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>301.5956630564418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,19 +24016,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
@@ -24048,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>34.91942896372126</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>33.20744238336366</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,19 +24104,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24260,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24297,16 +24299,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>14.75355855760485</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24348,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24409,10 +24411,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24446,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24461,10 +24463,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24497,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24522,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24537,7 +24539,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>14.13064538227052</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>117.555767173583</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24622,7 +24624,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -24643,7 +24645,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>46.33425578299914</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>108.137662477717</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>12.77749687517976</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,13 +24815,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25005,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25044,22 +25046,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>115.2702034285013</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25214,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>146.9462822885158</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>179.3857036041843</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>1.70271224139816</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,19 +25283,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>131.8725095025867</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25457,7 +25459,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="39">
@@ -25473,10 +25475,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>4.04773903138846</v>
       </c>
       <c r="E39" t="n">
-        <v>155.4763807823159</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25588,7 +25590,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>174.454594623674</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>112.774975257142</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>50.56340204145523</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>114.1648013839901</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>115.0036391131605</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25922,7 +25924,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>333.8123701683061</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>133.1246220264752</v>
+        <v>138.0478248410352</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>170.8172169493152</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26032,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26071,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238467</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238467</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238467</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358695.7022238467</v>
+        <v>498660.6524292128</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498660.6524292128</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495427.235636789</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355301.6422752917</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76974.81962490579</v>
+        <v>77709.45347827919</v>
       </c>
       <c r="C2" t="n">
-        <v>76974.81962490578</v>
+        <v>77709.45347827916</v>
       </c>
       <c r="D2" t="n">
-        <v>76974.81962490581</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="E2" t="n">
-        <v>76974.81962490582</v>
+        <v>77709.45347827916</v>
       </c>
       <c r="F2" t="n">
-        <v>76974.81962490582</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="G2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26350,10 +26352,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>107304.5740098336</v>
+        <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>76974.81962490577</v>
+        <v>108004.437145366</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="C4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="D4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="E4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="F4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="G4" t="n">
-        <v>18006.507495794</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
         <v>25282.26821261927</v>
@@ -26454,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>25114.1863689511</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>17830.0749817395</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9844.977324803476</v>
+        <v>8602.403897583863</v>
       </c>
       <c r="C6" t="n">
-        <v>23110.44492388637</v>
+        <v>23392.10990182807</v>
       </c>
       <c r="D6" t="n">
-        <v>23110.4449238864</v>
+        <v>23392.10990182807</v>
       </c>
       <c r="E6" t="n">
-        <v>56738.04492388642</v>
+        <v>57019.70990182806</v>
       </c>
       <c r="F6" t="n">
-        <v>56738.04492388641</v>
+        <v>57019.70990182807</v>
       </c>
       <c r="G6" t="n">
-        <v>55773.09035235328</v>
+        <v>14106.0652685128</v>
       </c>
       <c r="H6" t="n">
-        <v>14947.93319866007</v>
+        <v>68068.50016898508</v>
       </c>
       <c r="I6" t="n">
-        <v>68068.50016898508</v>
+        <v>68068.50016898509</v>
       </c>
       <c r="J6" t="n">
-        <v>57711.61626518131</v>
+        <v>56521.58205899425</v>
       </c>
       <c r="K6" t="n">
-        <v>68068.50016898505</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="L6" t="n">
         <v>68068.50016898511</v>
       </c>
       <c r="M6" t="n">
+        <v>68068.50016898509</v>
+      </c>
+      <c r="N6" t="n">
+        <v>68068.50016898509</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20688.6219515213</v>
+      </c>
+      <c r="P6" t="n">
         <v>68068.50016898508</v>
-      </c>
-      <c r="N6" t="n">
-        <v>68068.50016898511</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67813.25523849802</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56738.04492388635</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N9" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37394,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37628,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>201.1578881078215</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>104.4680418047872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>37.98452839772582</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>37.98452839772582</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
